--- a/Population/BCIO-population-hierarchy.xlsx
+++ b/Population/BCIO-population-hierarchy.xlsx
@@ -894,7 +894,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>A mental process that has positive or negative valence.</t>
+          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
-          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050925</t>
+          <t>BCIO:050888</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -4785,21 +4785,26 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>dyad</t>
+          <t>out-group</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>A &lt;social group&gt; of two people who interact and influence each other.</t>
+          <t>A social group that is part of a person’s social environmental system and with which the person does not identify.</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>population</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050888</t>
+          <t>BCIO:050925</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -4811,19 +4816,14 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>out-group</t>
+          <t>dyad</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>A social group that is part of a person’s social environmental system and with which the person does not identify.</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>population</t>
+          <t>A &lt;social group&gt; of two people who interact and influence each other.</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Un établissement de santé qui a pour fonction d'entreposer, préparer, distribuer et surveiller l'utilisation des médicaments parmi les patients d'une zone géographique donnée ou suivis dans une organisation de soin donnée.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of that housing unit's residence function.</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -5571,7 +5571,7 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -11080,7 +11080,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BCIO:015698</t>
+          <t>BCIO:015569</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
@@ -11091,7 +11091,7 @@
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr">
         <is>
-          <t>residential facility owner population statistic</t>
+          <t>percentage owner population statistic</t>
         </is>
       </c>
       <c r="I370" t="inlineStr"/>
@@ -11099,7 +11099,7 @@
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
-          <t>A population statistic about residential facility owner.</t>
+          <t>A owner population statistic that is the percentage of people that are a owner in the population.</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
@@ -11111,7 +11111,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BCIO:015699</t>
+          <t>BCIO:015698</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -11120,17 +11120,17 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr">
-        <is>
-          <t>percentage residential facility owner population statistic</t>
-        </is>
-      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>residential facility owner population statistic</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
-          <t>A residential facility owner population statistic that is the percentage of people that are a residential facility owner in the population.</t>
+          <t>A population statistic about residential facility owner.</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -11142,7 +11142,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BCIO:015700</t>
+          <t>BCIO:015699</t>
         </is>
       </c>
       <c r="B372" t="inlineStr"/>
@@ -11154,14 +11154,14 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>proportion residential facility owner population statistic</t>
+          <t>percentage residential facility owner population statistic</t>
         </is>
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
-          <t>A residential facility owner population statistic that is the proportion of people that are a residential facility owner in the population.</t>
+          <t>A residential facility owner population statistic that is the percentage of people that are a residential facility owner in the population.</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -11173,7 +11173,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BCIO:015569</t>
+          <t>BCIO:015700</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -11182,17 +11182,17 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>percentage owner population statistic</t>
-        </is>
-      </c>
-      <c r="I373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>proportion residential facility owner population statistic</t>
+        </is>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
-          <t>A owner population statistic that is the percentage of people that are a owner in the population.</t>
+          <t>A residential facility owner population statistic that is the proportion of people that are a residential facility owner in the population.</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
@@ -11204,7 +11204,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BCIO:015556</t>
+          <t>BCIO:015269</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -11214,7 +11214,7 @@
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr">
         <is>
-          <t>occupier of employer-provided housing population statistic</t>
+          <t>child population statistic</t>
         </is>
       </c>
       <c r="H374" t="inlineStr"/>
@@ -11223,7 +11223,7 @@
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
-          <t>A population statistic about occupier of employer-provided housing.</t>
+          <t>A population statistic about child.</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
@@ -11235,7 +11235,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BCIO:015557</t>
+          <t>BCIO:015270</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -11246,7 +11246,7 @@
       <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr">
         <is>
-          <t>percentage occupier of employer-provided housing population statistic</t>
+          <t>percentage child population statistic</t>
         </is>
       </c>
       <c r="I375" t="inlineStr"/>
@@ -11254,7 +11254,7 @@
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
-          <t>A occupier of employer-provided housing population statistic that is the percentage of people that are a occupier of employer-provided housing in the population.</t>
+          <t>A child population statistic that is the percentage of people that are a child in the population.</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
@@ -11266,7 +11266,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BCIO:015558</t>
+          <t>BCIO:015271</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -11277,7 +11277,7 @@
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr">
         <is>
-          <t>proportion occupier of employer-provided housing population statistic</t>
+          <t>proportion child population statistic</t>
         </is>
       </c>
       <c r="I376" t="inlineStr"/>
@@ -11285,7 +11285,7 @@
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
-          <t>A occupier of employer-provided housing population statistic that is the proportion of people that are a occupier of employer-provided housing in the population.</t>
+          <t>A child population statistic that is the proportion of people that are a child in the population.</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -11297,7 +11297,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BCIO:015269</t>
+          <t>BCIO:015556</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -11307,7 +11307,7 @@
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr">
         <is>
-          <t>child population statistic</t>
+          <t>occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="H377" t="inlineStr"/>
@@ -11316,7 +11316,7 @@
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
-          <t>A population statistic about child.</t>
+          <t>A population statistic about occupier of employer-provided housing.</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -11328,7 +11328,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BCIO:015270</t>
+          <t>BCIO:015557</t>
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
@@ -11339,7 +11339,7 @@
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
         <is>
-          <t>percentage child population statistic</t>
+          <t>percentage occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="I378" t="inlineStr"/>
@@ -11347,7 +11347,7 @@
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
-          <t>A child population statistic that is the percentage of people that are a child in the population.</t>
+          <t>A occupier of employer-provided housing population statistic that is the percentage of people that are a occupier of employer-provided housing in the population.</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -11359,7 +11359,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BCIO:015271</t>
+          <t>BCIO:015558</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -11370,7 +11370,7 @@
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr">
         <is>
-          <t>proportion child population statistic</t>
+          <t>proportion occupier of employer-provided housing population statistic</t>
         </is>
       </c>
       <c r="I379" t="inlineStr"/>
@@ -11378,7 +11378,7 @@
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
-          <t>A child population statistic that is the proportion of people that are a child in the population.</t>
+          <t>A occupier of employer-provided housing population statistic that is the proportion of people that are a occupier of employer-provided housing in the population.</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
@@ -13374,7 +13374,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>BCIO:015187</t>
+          <t>BCIO:015186</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -13386,14 +13386,14 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>proportion achieved primary education population statistic</t>
+          <t>percentage achieved primary education population statistic</t>
         </is>
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
-          <t>A achieved primary education population statistic that is the proportion of people that have achieved primary education in the population.</t>
+          <t>A achieved primary education population statistic that is the percentage of people that have achieved primary education in the population.</t>
         </is>
       </c>
       <c r="P444" t="inlineStr">
@@ -13405,7 +13405,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BCIO:015186</t>
+          <t>BCIO:015187</t>
         </is>
       </c>
       <c r="B445" t="inlineStr"/>
@@ -13417,14 +13417,14 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>percentage achieved primary education population statistic</t>
+          <t>proportion achieved primary education population statistic</t>
         </is>
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
-          <t>A achieved primary education population statistic that is the percentage of people that have achieved primary education in the population.</t>
+          <t>A achieved primary education population statistic that is the proportion of people that have achieved primary education in the population.</t>
         </is>
       </c>
       <c r="P445" t="inlineStr">
@@ -15358,7 +15358,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BCIO:015711</t>
+          <t>BCIO:015712</t>
         </is>
       </c>
       <c r="B508" t="inlineStr"/>
@@ -15370,14 +15370,14 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>percentage self employed status population statistic</t>
+          <t>proportion self employed status population statistic</t>
         </is>
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
-          <t>A self employed status population statistic that is the percentage of people that have self employed status in the population.</t>
+          <t>A self employed status population statistic that is the proportion of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="P508" t="inlineStr">
@@ -15389,7 +15389,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>BCIO:015712</t>
+          <t>BCIO:015711</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -15401,14 +15401,14 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>proportion self employed status population statistic</t>
+          <t>percentage self employed status population statistic</t>
         </is>
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
-          <t>A self employed status population statistic that is the proportion of people that have self employed status in the population.</t>
+          <t>A self employed status population statistic that is the percentage of people that have self employed status in the population.</t>
         </is>
       </c>
       <c r="P509" t="inlineStr">
@@ -21403,7 +21403,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>BCIO:015451</t>
+          <t>BCIO:015725</t>
         </is>
       </c>
       <c r="B703" t="inlineStr"/>
@@ -21413,7 +21413,7 @@
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr">
         <is>
-          <t>individual income population statistic</t>
+          <t>socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="H703" t="inlineStr"/>
@@ -21422,7 +21422,7 @@
       <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
-          <t>A population statistic about individual income.</t>
+          <t>A population statistic about socioeconomic status score.</t>
         </is>
       </c>
       <c r="P703" t="inlineStr">
@@ -21434,7 +21434,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>BCIO:015452</t>
+          <t>BCIO:015729</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -21445,7 +21445,7 @@
       <c r="G704" t="inlineStr"/>
       <c r="H704" t="inlineStr">
         <is>
-          <t>mean individual income population statistic</t>
+          <t>median socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="I704" t="inlineStr"/>
@@ -21453,7 +21453,7 @@
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the mean value of individual income in the population.</t>
+          <t>A socioeconomic status score population statistic that is the median value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="P704" t="inlineStr">
@@ -21465,7 +21465,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>BCIO:015454</t>
+          <t>BCIO:015728</t>
         </is>
       </c>
       <c r="B705" t="inlineStr"/>
@@ -21476,7 +21476,7 @@
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>maximum individual income population statistic</t>
+          <t>maximum socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="I705" t="inlineStr"/>
@@ -21484,7 +21484,7 @@
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the maximum value of individual income in the population.</t>
+          <t>A socioeconomic status score population statistic that is the maximum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="P705" t="inlineStr">
@@ -21496,7 +21496,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>BCIO:015453</t>
+          <t>BCIO:015726</t>
         </is>
       </c>
       <c r="B706" t="inlineStr"/>
@@ -21507,7 +21507,7 @@
       <c r="G706" t="inlineStr"/>
       <c r="H706" t="inlineStr">
         <is>
-          <t>minimum individual income population statistic</t>
+          <t>mean socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="I706" t="inlineStr"/>
@@ -21515,7 +21515,7 @@
       <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the minimum value of individual income in the population.</t>
+          <t>A socioeconomic status score population statistic that is the mean value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="P706" t="inlineStr">
@@ -21527,7 +21527,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>BCIO:015455</t>
+          <t>BCIO:015727</t>
         </is>
       </c>
       <c r="B707" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
       <c r="G707" t="inlineStr"/>
       <c r="H707" t="inlineStr">
         <is>
-          <t>median individual income population statistic</t>
+          <t>minimum socioeconomic status score population statistic</t>
         </is>
       </c>
       <c r="I707" t="inlineStr"/>
@@ -21546,7 +21546,7 @@
       <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the median value of individual income in the population.</t>
+          <t>A socioeconomic status score population statistic that is the minimum value of socioeconomic status score in the population.</t>
         </is>
       </c>
       <c r="P707" t="inlineStr">
@@ -21558,7 +21558,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>BCIO:015456</t>
+          <t>BCIO:015451</t>
         </is>
       </c>
       <c r="B708" t="inlineStr"/>
@@ -21566,18 +21566,18 @@
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr"/>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>percentage individual income population statistic</t>
-        </is>
-      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>individual income population statistic</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the percentage value of individual income in the population.</t>
+          <t>A population statistic about individual income.</t>
         </is>
       </c>
       <c r="P708" t="inlineStr">
@@ -21589,7 +21589,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>BCIO:015457</t>
+          <t>BCIO:015452</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -21600,7 +21600,7 @@
       <c r="G709" t="inlineStr"/>
       <c r="H709" t="inlineStr">
         <is>
-          <t>proportion individual income population statistic</t>
+          <t>mean individual income population statistic</t>
         </is>
       </c>
       <c r="I709" t="inlineStr"/>
@@ -21608,7 +21608,7 @@
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
-          <t>A individual income population statistic that is the proportion of individuals having a individual income in the population.</t>
+          <t>A individual income population statistic that is the mean value of individual income in the population.</t>
         </is>
       </c>
       <c r="P709" t="inlineStr">
@@ -21620,7 +21620,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>BCIO:015438</t>
+          <t>BCIO:015454</t>
         </is>
       </c>
       <c r="B710" t="inlineStr"/>
@@ -21631,7 +21631,7 @@
       <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
         <is>
-          <t>income-related welfare benefit population statistic</t>
+          <t>maximum individual income population statistic</t>
         </is>
       </c>
       <c r="I710" t="inlineStr"/>
@@ -21639,7 +21639,7 @@
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
-          <t>A population statistic about income-related welfare benefit.</t>
+          <t>A individual income population statistic that is the maximum value of individual income in the population.</t>
         </is>
       </c>
       <c r="P710" t="inlineStr">
@@ -21651,7 +21651,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>BCIO:015440</t>
+          <t>BCIO:015453</t>
         </is>
       </c>
       <c r="B711" t="inlineStr"/>
@@ -21660,17 +21660,17 @@
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr"/>
-      <c r="I711" t="inlineStr">
-        <is>
-          <t>proportion income-related welfare benefit population statistic</t>
-        </is>
-      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>minimum individual income population statistic</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>
-          <t>A income-related welfare benefit population statistic that is the proportion of people that have income-related welfare benefit in the population.</t>
+          <t>A individual income population statistic that is the minimum value of individual income in the population.</t>
         </is>
       </c>
       <c r="P711" t="inlineStr">
@@ -21682,7 +21682,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>BCIO:015439</t>
+          <t>BCIO:015455</t>
         </is>
       </c>
       <c r="B712" t="inlineStr"/>
@@ -21691,17 +21691,17 @@
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr"/>
-      <c r="I712" t="inlineStr">
-        <is>
-          <t>percentage income-related welfare benefit population statistic</t>
-        </is>
-      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>median individual income population statistic</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr">
         <is>
-          <t>A income-related welfare benefit population statistic that is the percentage of people that have income-related welfare benefit in the population.</t>
+          <t>A individual income population statistic that is the median value of individual income in the population.</t>
         </is>
       </c>
       <c r="P712" t="inlineStr">
@@ -21713,7 +21713,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>BCIO:015725</t>
+          <t>BCIO:015456</t>
         </is>
       </c>
       <c r="B713" t="inlineStr"/>
@@ -21721,18 +21721,18 @@
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>socioeconomic status score population statistic</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr"/>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>percentage individual income population statistic</t>
+        </is>
+      </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr">
         <is>
-          <t>A population statistic about socioeconomic status score.</t>
+          <t>A individual income population statistic that is the percentage value of individual income in the population.</t>
         </is>
       </c>
       <c r="P713" t="inlineStr">
@@ -21744,7 +21744,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>BCIO:015729</t>
+          <t>BCIO:015457</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -21755,7 +21755,7 @@
       <c r="G714" t="inlineStr"/>
       <c r="H714" t="inlineStr">
         <is>
-          <t>median socioeconomic status score population statistic</t>
+          <t>proportion individual income population statistic</t>
         </is>
       </c>
       <c r="I714" t="inlineStr"/>
@@ -21763,7 +21763,7 @@
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the median value of socioeconomic status score in the population.</t>
+          <t>A individual income population statistic that is the proportion of individuals having a individual income in the population.</t>
         </is>
       </c>
       <c r="P714" t="inlineStr">
@@ -21775,7 +21775,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>BCIO:015728</t>
+          <t>BCIO:015438</t>
         </is>
       </c>
       <c r="B715" t="inlineStr"/>
@@ -21786,7 +21786,7 @@
       <c r="G715" t="inlineStr"/>
       <c r="H715" t="inlineStr">
         <is>
-          <t>maximum socioeconomic status score population statistic</t>
+          <t>income-related welfare benefit population statistic</t>
         </is>
       </c>
       <c r="I715" t="inlineStr"/>
@@ -21794,7 +21794,7 @@
       <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the maximum value of socioeconomic status score in the population.</t>
+          <t>A population statistic about income-related welfare benefit.</t>
         </is>
       </c>
       <c r="P715" t="inlineStr">
@@ -21806,7 +21806,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>BCIO:015726</t>
+          <t>BCIO:015440</t>
         </is>
       </c>
       <c r="B716" t="inlineStr"/>
@@ -21815,17 +21815,17 @@
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
       <c r="G716" t="inlineStr"/>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>mean socioeconomic status score population statistic</t>
-        </is>
-      </c>
-      <c r="I716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>proportion income-related welfare benefit population statistic</t>
+        </is>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the mean value of socioeconomic status score in the population.</t>
+          <t>A income-related welfare benefit population statistic that is the proportion of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="P716" t="inlineStr">
@@ -21837,7 +21837,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>BCIO:015727</t>
+          <t>BCIO:015439</t>
         </is>
       </c>
       <c r="B717" t="inlineStr"/>
@@ -21846,17 +21846,17 @@
       <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="inlineStr"/>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>minimum socioeconomic status score population statistic</t>
-        </is>
-      </c>
-      <c r="I717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>percentage income-related welfare benefit population statistic</t>
+        </is>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
-          <t>A socioeconomic status score population statistic that is the minimum value of socioeconomic status score in the population.</t>
+          <t>A income-related welfare benefit population statistic that is the percentage of people that have income-related welfare benefit in the population.</t>
         </is>
       </c>
       <c r="P717" t="inlineStr">
@@ -22705,7 +22705,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>BCIO:015626</t>
+          <t>BCIO:015631</t>
         </is>
       </c>
       <c r="B745" t="inlineStr"/>
@@ -22716,7 +22716,7 @@
       <c r="G745" t="inlineStr"/>
       <c r="H745" t="inlineStr">
         <is>
-          <t>mean personal history part of intervention exposure population statistic</t>
+          <t>proportion personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I745" t="inlineStr"/>
@@ -22724,7 +22724,7 @@
       <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the mean value of personal history part of intervention exposure in the population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the proportion of individuals having a personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="P745" t="inlineStr">
@@ -22736,7 +22736,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>BCIO:015631</t>
+          <t>BCIO:015626</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -22747,7 +22747,7 @@
       <c r="G746" t="inlineStr"/>
       <c r="H746" t="inlineStr">
         <is>
-          <t>proportion personal history part of intervention exposure population statistic</t>
+          <t>mean personal history part of intervention exposure population statistic</t>
         </is>
       </c>
       <c r="I746" t="inlineStr"/>
@@ -22755,7 +22755,7 @@
       <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr">
         <is>
-          <t>A personal history part of intervention exposure population statistic that is the proportion of individuals having a personal history part of intervention exposure in the population.</t>
+          <t>A personal history part of intervention exposure population statistic that is the mean value of personal history part of intervention exposure in the population.</t>
         </is>
       </c>
       <c r="P746" t="inlineStr">
@@ -25154,7 +25154,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>BCIO:015477</t>
+          <t>BCIO:015474</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -25167,13 +25167,13 @@
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr">
         <is>
-          <t>median language proficiency population statistic</t>
+          <t>mean language proficiency population statistic</t>
         </is>
       </c>
       <c r="K824" t="inlineStr"/>
       <c r="L824" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the median value of language proficiency in the population.</t>
+          <t>A language proficiency population statistic that is the mean value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="P824" t="inlineStr">
@@ -25185,7 +25185,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>BCIO:015474</t>
+          <t>BCIO:015475</t>
         </is>
       </c>
       <c r="B825" t="inlineStr"/>
@@ -25198,13 +25198,13 @@
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr">
         <is>
-          <t>mean language proficiency population statistic</t>
+          <t>minimum language proficiency population statistic</t>
         </is>
       </c>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the mean value of language proficiency in the population.</t>
+          <t>A language proficiency population statistic that is the minimum value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="P825" t="inlineStr">
@@ -25278,7 +25278,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>BCIO:015475</t>
+          <t>BCIO:015478</t>
         </is>
       </c>
       <c r="B828" t="inlineStr"/>
@@ -25291,13 +25291,13 @@
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr">
         <is>
-          <t>minimum language proficiency population statistic</t>
+          <t>percentage language proficiency population statistic</t>
         </is>
       </c>
       <c r="K828" t="inlineStr"/>
       <c r="L828" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the minimum value of language proficiency in the population.</t>
+          <t>A language proficiency population statistic that is the percentage value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="P828" t="inlineStr">
@@ -25309,7 +25309,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>BCIO:015478</t>
+          <t>BCIO:015477</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -25322,13 +25322,13 @@
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr">
         <is>
-          <t>percentage language proficiency population statistic</t>
+          <t>median language proficiency population statistic</t>
         </is>
       </c>
       <c r="K829" t="inlineStr"/>
       <c r="L829" t="inlineStr">
         <is>
-          <t>A language proficiency population statistic that is the percentage value of language proficiency in the population.</t>
+          <t>A language proficiency population statistic that is the median value of language proficiency in the population.</t>
         </is>
       </c>
       <c r="P829" t="inlineStr">
@@ -27386,7 +27386,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>BCIO:015611</t>
+          <t>BCIO:015380</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -27396,7 +27396,7 @@
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr">
         <is>
-          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>health status attribute population statistic</t>
         </is>
       </c>
       <c r="H896" t="inlineStr"/>
@@ -27405,7 +27405,7 @@
       <c r="K896" t="inlineStr"/>
       <c r="L896" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of intervention exposure for the same outcome behaviour.</t>
+          <t>A population statistic about health status attribute.</t>
         </is>
       </c>
       <c r="P896" t="inlineStr">
@@ -27417,7 +27417,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>BCIO:015614</t>
+          <t>BCIO:015382</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -27428,7 +27428,7 @@
       <c r="G897" t="inlineStr"/>
       <c r="H897" t="inlineStr">
         <is>
-          <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>proportion health status attribute population statistic</t>
         </is>
       </c>
       <c r="I897" t="inlineStr"/>
@@ -27436,7 +27436,7 @@
       <c r="K897" t="inlineStr"/>
       <c r="L897" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A health status attribute population statistic that is the proportion of people that have a health status attribute in the population.</t>
         </is>
       </c>
       <c r="P897" t="inlineStr">
@@ -27448,7 +27448,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>BCIO:015612</t>
+          <t>BCIO:015381</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -27459,7 +27459,7 @@
       <c r="G898" t="inlineStr"/>
       <c r="H898" t="inlineStr">
         <is>
-          <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>percentage health status attribute population statistic</t>
         </is>
       </c>
       <c r="I898" t="inlineStr"/>
@@ -27467,7 +27467,7 @@
       <c r="K898" t="inlineStr"/>
       <c r="L898" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A health status attribute population statistic that is the percentage of people that have a health status attribute in the population.</t>
         </is>
       </c>
       <c r="P898" t="inlineStr">
@@ -27479,7 +27479,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>BCIO:015613</t>
+          <t>BCIO:015499</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -27490,7 +27490,7 @@
       <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
         <is>
-          <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>medication use status population statistic</t>
         </is>
       </c>
       <c r="I899" t="inlineStr"/>
@@ -27498,7 +27498,7 @@
       <c r="K899" t="inlineStr"/>
       <c r="L899" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A population statistic about medication use status.</t>
         </is>
       </c>
       <c r="P899" t="inlineStr">
@@ -27510,7 +27510,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>BCIO:015617</t>
+          <t>BCIO:015500</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -27519,17 +27519,17 @@
       <c r="E900" t="inlineStr"/>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
-        </is>
-      </c>
-      <c r="I900" t="inlineStr"/>
+      <c r="H900" t="inlineStr"/>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>percentage medication use status population statistic</t>
+        </is>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
       <c r="L900" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A medication use status population statistic that is the percentage of people that have medication use status in the population.</t>
         </is>
       </c>
       <c r="P900" t="inlineStr">
@@ -27541,7 +27541,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>BCIO:015615</t>
+          <t>BCIO:015501</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -27550,17 +27550,17 @@
       <c r="E901" t="inlineStr"/>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
-        </is>
-      </c>
-      <c r="I901" t="inlineStr"/>
+      <c r="H901" t="inlineStr"/>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>proportion medication use status population statistic</t>
+        </is>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
       <c r="L901" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A medication use status population statistic that is the proportion of people that have medication use status in the population.</t>
         </is>
       </c>
       <c r="P901" t="inlineStr">
@@ -27572,7 +27572,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>BCIO:015616</t>
+          <t>BCIO:015722</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -27580,18 +27580,18 @@
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr"/>
       <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
-        </is>
-      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>socioeconomic status category population statistic</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr"/>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
       <c r="L902" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A population statistic about socioeconomic status category.</t>
         </is>
       </c>
       <c r="P902" t="inlineStr">
@@ -27603,7 +27603,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>BCIO:015380</t>
+          <t>BCIO:015724</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -27611,18 +27611,18 @@
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>health status attribute population statistic</t>
-        </is>
-      </c>
-      <c r="H903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>proportion socioeconomic status category population statistic</t>
+        </is>
+      </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
       <c r="L903" t="inlineStr">
         <is>
-          <t>A population statistic about health status attribute.</t>
+          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
       <c r="P903" t="inlineStr">
@@ -27634,7 +27634,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>BCIO:015382</t>
+          <t>BCIO:015723</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -27645,7 +27645,7 @@
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>proportion health status attribute population statistic</t>
+          <t>percentage socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="I904" t="inlineStr"/>
@@ -27653,7 +27653,7 @@
       <c r="K904" t="inlineStr"/>
       <c r="L904" t="inlineStr">
         <is>
-          <t>A health status attribute population statistic that is the proportion of people that have a health status attribute in the population.</t>
+          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
       <c r="P904" t="inlineStr">
@@ -27665,7 +27665,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>BCIO:015381</t>
+          <t>BCIO:015611</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -27673,18 +27673,18 @@
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>percentage health status attribute population statistic</t>
-        </is>
-      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
+        </is>
+      </c>
+      <c r="H905" t="inlineStr"/>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
       <c r="L905" t="inlineStr">
         <is>
-          <t>A health status attribute population statistic that is the percentage of people that have a health status attribute in the population.</t>
+          <t>A population statistic about personal history of intervention exposure for the same outcome behaviour.</t>
         </is>
       </c>
       <c r="P905" t="inlineStr">
@@ -27696,7 +27696,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>BCIO:015499</t>
+          <t>BCIO:015614</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -27707,7 +27707,7 @@
       <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
-          <t>medication use status population statistic</t>
+          <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I906" t="inlineStr"/>
@@ -27715,7 +27715,7 @@
       <c r="K906" t="inlineStr"/>
       <c r="L906" t="inlineStr">
         <is>
-          <t>A population statistic about medication use status.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="P906" t="inlineStr">
@@ -27727,7 +27727,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>BCIO:015500</t>
+          <t>BCIO:015612</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -27736,17 +27736,17 @@
       <c r="E907" t="inlineStr"/>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr"/>
-      <c r="I907" t="inlineStr">
-        <is>
-          <t>percentage medication use status population statistic</t>
-        </is>
-      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
+        </is>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr"/>
       <c r="L907" t="inlineStr">
         <is>
-          <t>A medication use status population statistic that is the percentage of people that have medication use status in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="P907" t="inlineStr">
@@ -27758,7 +27758,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>BCIO:015501</t>
+          <t>BCIO:015613</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -27767,17 +27767,17 @@
       <c r="E908" t="inlineStr"/>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr"/>
-      <c r="I908" t="inlineStr">
-        <is>
-          <t>proportion medication use status population statistic</t>
-        </is>
-      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr"/>
       <c r="L908" t="inlineStr">
         <is>
-          <t>A medication use status population statistic that is the proportion of people that have medication use status in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="P908" t="inlineStr">
@@ -27789,7 +27789,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>BCIO:015722</t>
+          <t>BCIO:015617</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -27797,18 +27797,18 @@
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr"/>
       <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>socioeconomic status category population statistic</t>
-        </is>
-      </c>
-      <c r="H909" t="inlineStr"/>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
+        </is>
+      </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr"/>
       <c r="L909" t="inlineStr">
         <is>
-          <t>A population statistic about socioeconomic status category.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="P909" t="inlineStr">
@@ -27820,7 +27820,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>BCIO:015724</t>
+          <t>BCIO:015615</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -27831,7 +27831,7 @@
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>proportion socioeconomic status category population statistic</t>
+          <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I910" t="inlineStr"/>
@@ -27839,7 +27839,7 @@
       <c r="K910" t="inlineStr"/>
       <c r="L910" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="P910" t="inlineStr">
@@ -27851,7 +27851,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>BCIO:015723</t>
+          <t>BCIO:015616</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -27862,7 +27862,7 @@
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
         <is>
-          <t>percentage socioeconomic status category population statistic</t>
+          <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I911" t="inlineStr"/>
@@ -27870,7 +27870,7 @@
       <c r="K911" t="inlineStr"/>
       <c r="L911" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
       <c r="P911" t="inlineStr">
@@ -29374,7 +29374,7 @@
       <c r="K960" t="inlineStr"/>
       <c r="L960" t="inlineStr">
         <is>
-          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
+          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
         </is>
       </c>
     </row>
@@ -29886,7 +29886,7 @@
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr">
         <is>
-          <t>realizable</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="E979" t="inlineStr"/>
@@ -29976,7 +29976,7 @@
       <c r="K982" t="inlineStr"/>
       <c r="L982" t="inlineStr">
         <is>
-          <t>A realizable entity  the manifestation of which brings about some result or end that is not essential to a continuant  in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant  in some kinds of natural, social or institutional contexts.</t>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
         </is>
       </c>
       <c r="P982" t="inlineStr">
@@ -31175,7 +31175,7 @@
       <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>A bodily disposition is a disposition that inheres in some extended organism. Examples are: my disposition to catch a cold when exposed to a virus, my ability to speak the English language.</t>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
@@ -31201,7 +31201,7 @@
       <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
         </is>
       </c>
     </row>
@@ -32775,7 +32775,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>BCIO:015059</t>
+          <t>BCIO:015058</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -32784,7 +32784,7 @@
       <c r="E1074" t="inlineStr"/>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>employed in shift work</t>
+          <t>self employed status</t>
         </is>
       </c>
       <c r="G1074" t="inlineStr"/>
@@ -32794,19 +32794,29 @@
       <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>An employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
+          <t>An employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
+        </is>
+      </c>
+      <c r="O1074" t="inlineStr">
+        <is>
+          <t>employment status where the person is their own employer</t>
         </is>
       </c>
       <c r="P1074" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="R1074" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCIT_C116000 </t>
         </is>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>BCIO:015058</t>
+          <t>BCIO:015059</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -32815,7 +32825,7 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>self employed status</t>
+          <t>employed in shift work</t>
         </is>
       </c>
       <c r="G1075" t="inlineStr"/>
@@ -32825,22 +32835,12 @@
       <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>An employment status realised by a person earning income directly from customers, clients, or other organisations rather than as a specified salary or wages from an employer.</t>
-        </is>
-      </c>
-      <c r="O1075" t="inlineStr">
-        <is>
-          <t>employment status where the person is their own employer</t>
+          <t>An employment status realised by an individual working for recurring periods in which different groups of workers do the same jobs in relay.</t>
         </is>
       </c>
       <c r="P1075" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="R1075" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NCIT_C116000 </t>
         </is>
       </c>
     </row>
@@ -34108,7 +34108,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>BCIO:015061</t>
+          <t>BCIO:050893</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -34116,7 +34116,7 @@
       <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>not seeking employment</t>
+          <t>socio-demographic characteristic</t>
         </is>
       </c>
       <c r="F1112" t="inlineStr"/>
@@ -34127,7 +34127,12 @@
       <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process.</t>
+          <t>A &lt;personal attribute&gt; that, together with other attributes, characterises a person’s position in society.</t>
+        </is>
+      </c>
+      <c r="O1112" t="inlineStr">
+        <is>
+          <t>This can include social history, current circumstances, age, gender identity, occupation, education level, socio-economic position (status or group), ethnicity, sexual orientation, disability</t>
         </is>
       </c>
       <c r="P1112" t="inlineStr">
@@ -34139,7 +34144,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>BCIO:015159</t>
+          <t>BCIO:015061</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -34147,7 +34152,7 @@
       <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>personal psychological attribute</t>
+          <t>not seeking employment</t>
         </is>
       </c>
       <c r="F1113" t="inlineStr"/>
@@ -34158,12 +34163,7 @@
       <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities.</t>
-        </is>
-      </c>
-      <c r="M1113" t="inlineStr">
-        <is>
-          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
+          <t>A personal attribute inhering in a person by virtue of that person not having a paid job and not currently seeking to begin participating in an employment process.</t>
         </is>
       </c>
       <c r="P1113" t="inlineStr">
@@ -34175,7 +34175,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>BCIO:015066</t>
+          <t>BCIO:015159</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -34183,7 +34183,7 @@
       <c r="D1114" t="inlineStr"/>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>independently wealthy status</t>
+          <t>personal psychological attribute</t>
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
@@ -34194,7 +34194,12 @@
       <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment.</t>
+          <t>An attribute reflecting a person's mental dispositions, mental processes or capabilities.</t>
+        </is>
+      </c>
+      <c r="M1114" t="inlineStr">
+        <is>
+          <t>low motivation to quit,  low self efficacy for physical activity, negative attitudes to healthy eating, contemplation stage of change, low numeracy</t>
         </is>
       </c>
       <c r="P1114" t="inlineStr">
@@ -34206,7 +34211,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>ADDICTO:0000179</t>
+          <t>BCIO:015066</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -34214,7 +34219,7 @@
       <c r="D1115" t="inlineStr"/>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>personal stake</t>
+          <t>independently wealthy status</t>
         </is>
       </c>
       <c r="F1115" t="inlineStr"/>
@@ -34225,14 +34230,19 @@
       <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>A personal attribute in relation to an activity such that an outcome of the activity has value for the person.</t>
+          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process due to possessing enough wealth to not need financial support from another person or require income from employment.</t>
+        </is>
+      </c>
+      <c r="P1115" t="inlineStr">
+        <is>
+          <t>population</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t>ADDICTO:0000179</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -34240,7 +34250,7 @@
       <c r="D1116" t="inlineStr"/>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>addiction strength</t>
+          <t>personal stake</t>
         </is>
       </c>
       <c r="F1116" t="inlineStr"/>
@@ -34251,14 +34261,14 @@
       <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>A personal attribute that is the strength of motivation experienced to engage in the behaviour to which the person is addicted.</t>
+          <t>A personal attribute in relation to an activity such that an outcome of the activity has value for the person.</t>
         </is>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>BCIO:015064</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -34266,7 +34276,7 @@
       <c r="D1117" t="inlineStr"/>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>unpaid carer for an adult status</t>
+          <t>addiction strength</t>
         </is>
       </c>
       <c r="F1117" t="inlineStr"/>
@@ -34277,19 +34287,14 @@
       <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
-        </is>
-      </c>
-      <c r="P1117" t="inlineStr">
-        <is>
-          <t>population</t>
+          <t>A personal attribute that is the strength of motivation experienced to engage in the behaviour to which the person is addicted.</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>BCIO:050886</t>
+          <t>BCIO:015064</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -34297,7 +34302,7 @@
       <c r="D1118" t="inlineStr"/>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>extent of past behavioural achievement</t>
+          <t>unpaid carer for an adult status</t>
         </is>
       </c>
       <c r="F1118" t="inlineStr"/>
@@ -34308,7 +34313,7 @@
       <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>A personal attribute that is the extent to which the person’s past behaviour has reached or exceeded a standard.</t>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to their primary occupation being caring, without receiving a wage for it, for an adult friend or family member who, due to illness or disability, requires support in their daily life activities.</t>
         </is>
       </c>
       <c r="P1118" t="inlineStr">
@@ -34320,7 +34325,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>BCIO:015067</t>
+          <t>BCIO:050886</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -34328,7 +34333,7 @@
       <c r="D1119" t="inlineStr"/>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>retired status</t>
+          <t>extent of past behavioural achievement</t>
         </is>
       </c>
       <c r="F1119" t="inlineStr"/>
@@ -34339,7 +34344,7 @@
       <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career.</t>
+          <t>A personal attribute that is the extent to which the person’s past behaviour has reached or exceeded a standard.</t>
         </is>
       </c>
       <c r="P1119" t="inlineStr">
@@ -34351,7 +34356,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>BCIO:050474</t>
+          <t>BCIO:015067</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -34359,7 +34364,7 @@
       <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>disabled</t>
+          <t>retired status</t>
         </is>
       </c>
       <c r="F1120" t="inlineStr"/>
@@ -34370,7 +34375,7 @@
       <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>A personal attribute in which the person has impaired physical or mental functioning that has a notable effect on their ability to do typical daily activities.</t>
+          <t>A personal attribute inhering in a person who previously bore a role realised in an employment process but has withdrawn from that employment process, having concluded their working or professional career.</t>
         </is>
       </c>
       <c r="P1120" t="inlineStr">
@@ -34382,18 +34387,18 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>BCIO:050479</t>
+          <t>BCIO:050474</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
       <c r="C1121" t="inlineStr"/>
       <c r="D1121" t="inlineStr"/>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>long-term disabled</t>
-        </is>
-      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>disabled</t>
+        </is>
+      </c>
+      <c r="F1121" t="inlineStr"/>
       <c r="G1121" t="inlineStr"/>
       <c r="H1121" t="inlineStr"/>
       <c r="I1121" t="inlineStr"/>
@@ -34401,12 +34406,7 @@
       <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Disabled for at least 12 months.</t>
-        </is>
-      </c>
-      <c r="O1121" t="inlineStr">
-        <is>
-          <t>This is a fuzzy class. The minimum duration for a disability to be deemed long-term is subject to debate.  12 months seems reasonable, but others may wish to specify a different duration if required for their purposes.</t>
+          <t>A personal attribute in which the person has impaired physical or mental functioning that has a notable effect on their ability to do typical daily activities.</t>
         </is>
       </c>
       <c r="P1121" t="inlineStr">
@@ -34418,18 +34418,18 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>BCIO:015065</t>
+          <t>BCIO:050479</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
       <c r="C1122" t="inlineStr"/>
       <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr">
-        <is>
-          <t>homemaker status</t>
-        </is>
-      </c>
-      <c r="F1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr">
+        <is>
+          <t>long-term disabled</t>
+        </is>
+      </c>
       <c r="G1122" t="inlineStr"/>
       <c r="H1122" t="inlineStr"/>
       <c r="I1122" t="inlineStr"/>
@@ -34437,24 +34437,24 @@
       <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process and who manages their home as their main daily activity.</t>
+          <t>Disabled for at least 12 months.</t>
+        </is>
+      </c>
+      <c r="O1122" t="inlineStr">
+        <is>
+          <t>This is a fuzzy class. The minimum duration for a disability to be deemed long-term is subject to debate.  12 months seems reasonable, but others may wish to specify a different duration if required for their purposes.</t>
         </is>
       </c>
       <c r="P1122" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="R1122" t="inlineStr">
-        <is>
-          <t>NCIT_C75560</t>
         </is>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>BCIO:015062</t>
+          <t>BCIO:015065</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -34462,7 +34462,7 @@
       <c r="D1123" t="inlineStr"/>
       <c r="E1123" t="inlineStr">
         <is>
-          <t>not working for health reasons</t>
+          <t>homemaker status</t>
         </is>
       </c>
       <c r="F1123" t="inlineStr"/>
@@ -34473,19 +34473,24 @@
       <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability.</t>
+          <t>A personal attribute inhering in a person who does not bear a role realised in an employment process and who manages their home as their main daily activity.</t>
         </is>
       </c>
       <c r="P1123" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="R1123" t="inlineStr">
+        <is>
+          <t>NCIT_C75560</t>
         </is>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>BCIO:015014</t>
+          <t>BCIO:015062</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -34493,7 +34498,7 @@
       <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>religious group membership</t>
+          <t>not working for health reasons</t>
         </is>
       </c>
       <c r="F1124" t="inlineStr"/>
@@ -34504,34 +34509,19 @@
       <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>A personal attribute that is belonging to a group that is characterised by the practice of a common religion by the group members.</t>
-        </is>
-      </c>
-      <c r="M1124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
-        </is>
-      </c>
-      <c r="O1124" t="inlineStr">
-        <is>
-          <t>presented in aggregated form as proportion/percentage belonging to a specified religious group</t>
+          <t>A personal attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, due to being unable to work due to illness or disability.</t>
         </is>
       </c>
       <c r="P1124" t="inlineStr">
         <is>
           <t>population</t>
-        </is>
-      </c>
-      <c r="R1124" t="inlineStr">
-        <is>
-          <t>NCIT_C103282</t>
         </is>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>BCIO:015092</t>
+          <t>BCIO:015014</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -34539,7 +34529,7 @@
       <c r="D1125" t="inlineStr"/>
       <c r="E1125" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>religious group membership</t>
         </is>
       </c>
       <c r="F1125" t="inlineStr"/>
@@ -34550,12 +34540,17 @@
       <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
+          <t>A personal attribute that is belonging to a group that is characterised by the practice of a common religion by the group members.</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr">
         <is>
-          <t>Having chicken pox, asthma, a heart attack</t>
+          <t xml:space="preserve"> Religion Baptist 157 (37.0%) 163 (40.3%) Catholic 54 (12.7%) 60 (14.9%) Muslim 39 (9.2%) </t>
+        </is>
+      </c>
+      <c r="O1125" t="inlineStr">
+        <is>
+          <t>presented in aggregated form as proportion/percentage belonging to a specified religious group</t>
         </is>
       </c>
       <c r="P1125" t="inlineStr">
@@ -34565,25 +34560,25 @@
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>NCIT_C16669</t>
+          <t>NCIT_C103282</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>BCIO:015093</t>
+          <t>BCIO:015092</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>medication use status</t>
-        </is>
-      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>health status attribute</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
       <c r="H1126" t="inlineStr"/>
       <c r="I1126" t="inlineStr"/>
@@ -34591,40 +34586,40 @@
       <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A personal attribute that is the state of an individual's mental or physical condition.</t>
         </is>
       </c>
       <c r="M1126" t="inlineStr">
         <is>
-          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
-        </is>
-      </c>
-      <c r="O1126" t="inlineStr">
-        <is>
-          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
+          <t>Having chicken pox, asthma, a heart attack</t>
         </is>
       </c>
       <c r="P1126" t="inlineStr">
         <is>
           <t>population</t>
+        </is>
+      </c>
+      <c r="R1126" t="inlineStr">
+        <is>
+          <t>NCIT_C16669</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>BCIO:050893</t>
+          <t>BCIO:015093</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr">
-        <is>
-          <t>socio-demographic characteristic</t>
-        </is>
-      </c>
-      <c r="F1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>medication use status</t>
+        </is>
+      </c>
       <c r="G1127" t="inlineStr"/>
       <c r="H1127" t="inlineStr"/>
       <c r="I1127" t="inlineStr"/>
@@ -34632,12 +34627,17 @@
       <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt; that, together with other attributes, characterises a person’s position in society.</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+        </is>
+      </c>
+      <c r="M1127" t="inlineStr">
+        <is>
+          <t>prescribed at least one antihypertensive medication, taking asthma preventer inhalers</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>This can include social history, current circumstances, age, gender identity, occupation, education level, socio-economic position (status or group), ethnicity, sexual orientation, disability</t>
+          <t>This entity reflects having been prescribed a medication.  Actual use of the medicine would be captured as a behaviour</t>
         </is>
       </c>
       <c r="P1127" t="inlineStr">
